--- a/csv_files/Try 3/Output_j3.xlsx
+++ b/csv_files/Try 3/Output_j3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\csv_files\Try 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6B7ED-1CD6-4574-AE7A-93D872ECBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5D440-4F3F-4CE2-8129-3825C34921DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,10 +491,14 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
@@ -540,11 +544,11 @@
       </c>
       <c r="D3">
         <f>$Q$8</f>
-        <v>542502844034.13727</v>
+        <v>542502844.03413725</v>
       </c>
       <c r="E3">
-        <f>SUM(O23:Y23)</f>
-        <v>4771518285046.7178</v>
+        <f t="shared" ref="E3:E18" si="1">SUM(O23:Y23)</f>
+        <v>4771518285.0467176</v>
       </c>
       <c r="F3">
         <f>E3/D3</f>
@@ -596,16 +600,16 @@
         <v>2.384055286857016</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="1">$Q$8</f>
-        <v>542502844034.13727</v>
+        <f t="shared" ref="D4:D18" si="2">$Q$8</f>
+        <v>542502844.03413725</v>
       </c>
       <c r="E4">
-        <f>SUM(O24:Y24)</f>
-        <v>4667465820205.6592</v>
+        <f t="shared" si="1"/>
+        <v>4667465820.2056599</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="2">E4/D4</f>
-        <v>8.603578527805757</v>
+        <f t="shared" ref="F4:F18" si="3">E4/D4</f>
+        <v>8.6035785278057588</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -656,16 +660,16 @@
         <v>2.3650750320294001</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E5">
-        <f>SUM(O25:Y25)</f>
-        <v>4634608350119.416</v>
+        <v>4634608350.1194143</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>8.5430120801869585</v>
+        <f t="shared" si="3"/>
+        <v>8.5430120801869549</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -675,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:AA5" si="3">1/(1+$R$1)^R4</f>
+        <f t="shared" ref="R5:AA5" si="4">1/(1+$R$1)^R4</f>
         <v>0.79383224102016958</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63016962688310452</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50024896713145905</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39711375864599124</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31524170496588994</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25024902911609154</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19865574759634863</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1576993373059466</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12518681834097523</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9377332549801231E-2</v>
       </c>
     </row>
@@ -727,63 +731,63 @@
         <v>2.3841224790568298</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E6">
-        <f>SUM(O26:Y26)</f>
-        <v>4667114695943.1621</v>
+        <v>4667114695.9431629</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>8.6029312975352461</v>
+        <f t="shared" si="3"/>
+        <v>8.6029312975352479</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
       </c>
       <c r="Q6">
-        <f>1000000*121425.742574257</f>
-        <v>121425742574.257</v>
+        <f>1000*121425.742574257</f>
+        <v>121425742.574257</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:AA6" si="4">1000000*121425.742574257</f>
-        <v>121425742574.257</v>
+        <f t="shared" ref="R6:AA6" si="5">1000*121425.742574257</f>
+        <v>121425742.574257</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="X6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
-        <v>121425742574.257</v>
+        <f t="shared" si="5"/>
+        <v>121425742.574257</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -798,15 +802,15 @@
         <v>2.2752202820779148</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E7">
-        <f>SUM(O27:Y27)</f>
-        <v>4553117294929.2578</v>
+        <v>4553117294.9292574</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.392798941055414</v>
       </c>
       <c r="P7" t="s">
@@ -814,47 +818,47 @@
       </c>
       <c r="Q7">
         <f>Q6*Q5</f>
-        <v>121425742574.257</v>
+        <v>121425742.574257</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:AA7" si="5">R6*R5</f>
-        <v>96391669345.260651</v>
+        <f t="shared" ref="R7:AA7" si="6">R6*R5</f>
+        <v>96391669.34526065</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
-        <v>76518814892.023438</v>
+        <f t="shared" si="6"/>
+        <v>76518814.892023429</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
-        <v>60743102305.942497</v>
+        <f t="shared" si="6"/>
+        <v>60743102.305942498</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
-        <v>48219833030.043762</v>
+        <f t="shared" si="6"/>
+        <v>48219833.030043758</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
-        <v>38278458115.858025</v>
+        <f t="shared" si="6"/>
+        <v>38278458.115858026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
-        <v>30386674188.908276</v>
+        <f t="shared" si="6"/>
+        <v>30386674.188908275</v>
       </c>
       <c r="X7">
-        <f t="shared" si="5"/>
-        <v>24121921668.530804</v>
+        <f t="shared" si="6"/>
+        <v>24121921.668530803</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
-        <v>19148759135.842796</v>
+        <f t="shared" si="6"/>
+        <v>19148759.135842796</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
-        <v>15200902377.561533</v>
+        <f t="shared" si="6"/>
+        <v>15200902.377561532</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
-        <v>12066966399.908495</v>
+        <f t="shared" si="6"/>
+        <v>12066966.399908496</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -869,15 +873,15 @@
         <v>2.22299036836736</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E8">
-        <f>SUM(O28:Y28)</f>
-        <v>4479040094463.3877</v>
+        <v>4479040094.4633875</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2562518219379903</v>
       </c>
       <c r="P8" t="s">
@@ -885,7 +889,7 @@
       </c>
       <c r="Q8">
         <f>SUM(Q7:AA7)</f>
-        <v>542502844034.13727</v>
+        <v>542502844.03413725</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -900,15 +904,15 @@
         <v>2.2052351773398309</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E9">
-        <f>SUM(O29:Y29)</f>
-        <v>4455650998017.9355</v>
+        <v>4455650998.0179348</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2131385061228563</v>
       </c>
     </row>
@@ -924,16 +928,16 @@
         <v>2.228139786312719</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E10">
-        <f>SUM(O30:Y30)</f>
-        <v>4486957108296.0586</v>
+        <v>4486957108.2960596</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>8.2708453193172833</v>
+        <f t="shared" si="3"/>
+        <v>8.2708453193172851</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -948,16 +952,16 @@
         <v>2.1407856129822709</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E11">
-        <f>SUM(O31:Y31)</f>
-        <v>4386434229246.478</v>
+        <v>4386434229.246479</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>8.0855506611324959</v>
+        <f t="shared" si="3"/>
+        <v>8.0855506611324977</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -972,15 +976,15 @@
         <v>2.054077178410521</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E12">
-        <f>SUM(O32:Y32)</f>
-        <v>4262559349373.4292</v>
+        <v>4262559349.3734293</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8572110658008008</v>
       </c>
     </row>
@@ -996,16 +1000,16 @@
         <v>2.015566945411122</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E13">
-        <f>SUM(O33:Y33)</f>
-        <v>4206493797111.3379</v>
+        <v>4206493797.1113381</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>7.7538649674740547</v>
+        <f t="shared" si="3"/>
+        <v>7.7538649674740556</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1020,15 +1024,15 @@
         <v>2.0568683037742712</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E14">
-        <f>SUM(O34:Y34)</f>
-        <v>4280403114363.0171</v>
+        <v>4280403114.3630171</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8901026260678382</v>
       </c>
     </row>
@@ -1044,15 +1048,15 @@
         <v>2.1313557566288259</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E15">
-        <f>SUM(O35:Y35)</f>
-        <v>4418654363163.1631</v>
+        <v>4418654363.1631632</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1449423016943978</v>
       </c>
     </row>
@@ -1068,16 +1072,16 @@
         <v>2.161260439241433</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E16">
-        <f>SUM(O36:Y36)</f>
-        <v>4657002882044.7754</v>
+        <v>4657002882.044776</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>8.5842921069584861</v>
+        <f t="shared" si="3"/>
+        <v>8.5842921069584879</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -1092,16 +1096,16 @@
         <v>2.2173825594312282</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E17">
-        <f>SUM(O37:Y37)</f>
-        <v>4956621072590.4541</v>
+        <v>4956621072.5904541</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>9.1365808070833925</v>
+        <f t="shared" si="3"/>
+        <v>9.1365808070833943</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -1116,16 +1120,16 @@
         <v>2.5855077194303129</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>542502844034.13727</v>
-      </c>
-      <c r="E18">
-        <f>SUM(O38:Y38)</f>
-        <v>5811760590530.9004</v>
+        <v>5811760590.530901</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>10.712866585755986</v>
+        <f t="shared" si="3"/>
+        <v>10.712866585755988</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -1262,52 +1266,52 @@
         <v>2.4433380082094822</v>
       </c>
       <c r="N23">
-        <f>1000000*121425.742574257</f>
-        <v>121425742574.257</v>
+        <f>1000*121425.742574257</f>
+        <v>121425742.574257</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O38" si="6">C23*$N$23</f>
-        <v>665662523951.23535</v>
+        <f t="shared" ref="O23:O38" si="7">C23*$N$23</f>
+        <v>665662523.95123541</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P38" si="7">D23*$N$23</f>
-        <v>606499211681.77393</v>
+        <f t="shared" ref="P23:P38" si="8">D23*$N$23</f>
+        <v>606499211.6817739</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q38" si="8">E23*$N$23</f>
-        <v>547335899412.30975</v>
+        <f t="shared" ref="Q23:Q38" si="9">E23*$N$23</f>
+        <v>547335899.41230977</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R38" si="9">F23*$N$23</f>
-        <v>488172587142.84344</v>
+        <f t="shared" ref="R23:R38" si="10">F23*$N$23</f>
+        <v>488172587.14284343</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S38" si="10">G23*$N$23</f>
-        <v>434334379844.4743</v>
+        <f t="shared" ref="S23:S38" si="11">G23*$N$23</f>
+        <v>434334379.84447426</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T38" si="11">H23*$N$23</f>
-        <v>382998736640.70343</v>
+        <f t="shared" ref="T23:T38" si="12">H23*$N$23</f>
+        <v>382998736.64070338</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U38" si="12">I23*$N$23</f>
-        <v>363238495267.98193</v>
+        <f t="shared" ref="U23:U38" si="13">I23*$N$23</f>
+        <v>363238495.26798195</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V38" si="13">J23*$N$23</f>
-        <v>344744342954.5592</v>
+        <f t="shared" ref="V23:V38" si="14">J23*$N$23</f>
+        <v>344744342.95455921</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W38" si="14">K23*$N$23</f>
-        <v>328885459040.88385</v>
+        <f t="shared" ref="W23:W38" si="15">K23*$N$23</f>
+        <v>328885459.04088384</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X38" si="15">L23*$N$23</f>
-        <v>312962517103.21027</v>
+        <f t="shared" ref="X23:X38" si="16">L23*$N$23</f>
+        <v>312962517.10321027</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y38" si="16">M23*$N$23</f>
-        <v>296684132006.74243</v>
+        <f t="shared" ref="Y23:Y38" si="17">M23*$N$23</f>
+        <v>296684132.00674242</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -1362,52 +1366,52 @@
         <v>2.384055286857016</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N38" si="17">1000000*121425.742574257</f>
+        <f t="shared" ref="N24:N38" si="18">1000000*121425.742574257</f>
         <v>121425742574.257</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
-        <v>651897477655.1239</v>
+        <f t="shared" si="7"/>
+        <v>651897477.65512395</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
-        <v>593711622912.7804</v>
+        <f t="shared" si="8"/>
+        <v>593711622.9127804</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>535616640925.78314</v>
+        <f t="shared" si="9"/>
+        <v>535616640.9257831</v>
       </c>
       <c r="R24">
-        <f t="shared" si="9"/>
-        <v>477565109066.22223</v>
+        <f t="shared" si="10"/>
+        <v>477565109.06622219</v>
       </c>
       <c r="S24">
-        <f t="shared" si="10"/>
-        <v>425147067975.81396</v>
+        <f t="shared" si="11"/>
+        <v>425147067.97581393</v>
       </c>
       <c r="T24">
-        <f t="shared" si="11"/>
-        <v>374424021246.92523</v>
+        <f t="shared" si="12"/>
+        <v>374424021.24692518</v>
       </c>
       <c r="U24">
-        <f t="shared" si="12"/>
-        <v>355093258731.83948</v>
+        <f t="shared" si="13"/>
+        <v>355093258.73183948</v>
       </c>
       <c r="V24">
-        <f t="shared" si="13"/>
-        <v>337080774235.76105</v>
+        <f t="shared" si="14"/>
+        <v>337080774.23576105</v>
       </c>
       <c r="W24">
-        <f t="shared" si="14"/>
-        <v>321704121734.32654</v>
+        <f t="shared" si="15"/>
+        <v>321704121.73432654</v>
       </c>
       <c r="X24">
-        <f t="shared" si="15"/>
-        <v>305740042176.38635</v>
+        <f t="shared" si="16"/>
+        <v>305740042.17638636</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="16"/>
-        <v>289485683544.69647</v>
+        <f t="shared" si="17"/>
+        <v>289485683.54469645</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -1462,52 +1466,52 @@
         <v>2.3650750320294001</v>
       </c>
       <c r="N25">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>648515447.45822942</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>590568649.27247453</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>532508827.14745694</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>474307051.31259102</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>421634648.9745242</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>371673937.38534558</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>352305841.35894996</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="14"/>
+        <v>334178973.36921382</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>318637651.73394662</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>303096330.09867871</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="6"/>
-        <v>648515447458.22937</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="7"/>
-        <v>590568649272.47449</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>532508827147.45697</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="9"/>
-        <v>474307051312.59106</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="10"/>
-        <v>421634648974.52423</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="11"/>
-        <v>371673937385.34558</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="12"/>
-        <v>352305841358.94995</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="13"/>
-        <v>334178973369.21381</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="14"/>
-        <v>318637651733.94666</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="15"/>
-        <v>303096330098.67871</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="16"/>
-        <v>287180992008.00458</v>
+        <v>287180992.00800455</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -1562,52 +1566,52 @@
         <v>2.3841224790568298</v>
       </c>
       <c r="N26">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>651807069.69579804</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>593594653.11383367</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>535483206.26003182</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>477420037.32560408</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>424991598.94500005</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>374638175.30941385</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>355280273.46909606</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="14"/>
+        <v>337244190.65301132</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>321472974.80483896</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>305688673.95908016</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
-        <v>651807069695.79797</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="7"/>
-        <v>593594653113.83362</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>535483206260.03186</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="9"/>
-        <v>477420037325.60406</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="10"/>
-        <v>424991598945.00006</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="11"/>
-        <v>374638175309.41388</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="12"/>
-        <v>355280273469.09607</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="13"/>
-        <v>337244190653.01129</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="14"/>
-        <v>321472974804.83893</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="15"/>
-        <v>305688673959.08014</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="16"/>
-        <v>289493842407.45404</v>
+        <v>289493842.40745407</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -1662,52 +1666,52 @@
         <v>2.2752202820779148</v>
       </c>
       <c r="N27">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>646032991.81615341</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>586728016.4020468</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>527476891.50962573</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>468251514.84086984</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>414759200.33649391</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>363433618.61668259</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>343551887.63871574</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="14"/>
+        <v>324936245.72004753</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>308955872.20112658</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>292720743.5761742</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="6"/>
-        <v>646032991816.15344</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="7"/>
-        <v>586728016402.04688</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>527476891509.62573</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="9"/>
-        <v>468251514840.86987</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="10"/>
-        <v>414759200336.49396</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="11"/>
-        <v>363433618616.68262</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="12"/>
-        <v>343551887638.71576</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="13"/>
-        <v>324936245720.04755</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="14"/>
-        <v>308955872201.12659</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="15"/>
-        <v>292720743576.17419</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="16"/>
-        <v>276270312271.32129</v>
+        <v>276270312.2713213</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -1762,52 +1766,52 @@
         <v>2.22299036836736</v>
       </c>
       <c r="N28">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>639094350.66544282</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>579970488.92825675</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>520767987.63522089</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>461349697.71664852</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>407564898.56722891</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>356543848.80287451</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>336783607.43015319</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="14"/>
+        <v>318289455.11673045</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="15"/>
+        <v>302430571.20305496</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>286316932.18334794</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
-        <v>639094350665.44287</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="7"/>
-        <v>579970488928.25684</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>520767987635.22089</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="9"/>
-        <v>461349697716.6485</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="10"/>
-        <v>407564898567.22894</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="11"/>
-        <v>356543848802.87451</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="12"/>
-        <v>336783607430.1532</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="13"/>
-        <v>318289455116.73047</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="14"/>
-        <v>302430571203.05499</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="15"/>
-        <v>286316932183.3479</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="16"/>
-        <v>269928256214.4278</v>
+        <v>269928256.21442777</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -1862,52 +1866,52 @@
         <v>2.2052351773398309</v>
       </c>
       <c r="N29">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>636991964.58902836</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>577828652.31956685</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>518665340.05010271</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>459456129.35770839</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>405650535.62789696</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>354328177.27849621</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>334567935.90577489</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="14"/>
+        <v>316073783.59235215</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="15"/>
+        <v>300214899.67867684</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>284101260.65896976</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="6"/>
-        <v>636991964589.02844</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="7"/>
-        <v>577828652319.56689</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>518665340050.10272</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="9"/>
-        <v>459456129357.70837</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="10"/>
-        <v>405650535627.89697</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="11"/>
-        <v>354328177278.49622</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="12"/>
-        <v>334567935905.7749</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="13"/>
-        <v>316073783592.35217</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="14"/>
-        <v>300214899678.67682</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="15"/>
-        <v>284101260658.96973</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="16"/>
-        <v>267772318959.3623</v>
+        <v>267772318.9593623</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -1962,52 +1966,52 @@
         <v>2.228139786312719</v>
       </c>
       <c r="N30">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>639892382.71962249</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>580587407.30551577</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>521336282.4130947</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>462110905.74433893</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>408618591.239963</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>357293009.52015156</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="13"/>
+        <v>337575036.08150965</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="14"/>
+        <v>319009063.77832901</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="15"/>
+        <v>303019372.73755586</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="16"/>
+        <v>286961528.64371008</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
-        <v>639892382719.62244</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="7"/>
-        <v>580587407305.51587</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>521336282413.09473</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="9"/>
-        <v>462110905744.33893</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="10"/>
-        <v>408618591239.96301</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="11"/>
-        <v>357293009520.15155</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="12"/>
-        <v>337575036081.50964</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="13"/>
-        <v>319009063778.32898</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="14"/>
-        <v>303019372737.55585</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="15"/>
-        <v>286961528643.71008</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="16"/>
-        <v>270553528112.26822</v>
+        <v>270553528.11226821</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -2062,52 +2066,52 @@
         <v>2.1407856129822709</v>
       </c>
       <c r="N31">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>632882160.9034183</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>573086183.68348002</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>513357519.61564916</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>453661040.82740045</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>399699277.24975944</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>347717237.12024683</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="13"/>
+        <v>327714016.53703433</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="14"/>
+        <v>308976885.01312083</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="15"/>
+        <v>292875021.88895458</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>276518403.65875643</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="6"/>
-        <v>632882160903.41833</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="7"/>
-        <v>573086183683.4801</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>513357519615.64917</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="9"/>
-        <v>453661040827.40045</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="10"/>
-        <v>399699277249.75946</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="11"/>
-        <v>347717237120.24683</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>327714016537.03436</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="13"/>
-        <v>308976885013.12079</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="14"/>
-        <v>292875021888.95459</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="15"/>
-        <v>276518403658.75641</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="16"/>
-        <v>259946482748.6582</v>
+        <v>259946482.74865821</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -2162,52 +2166,52 @@
         <v>2.054077178410521</v>
       </c>
       <c r="N32">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>620331008.17955756</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>560884369.62080586</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>501545432.1054278</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>442257991.03738236</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>388372382.26213467</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>336581153.03869331</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="13"/>
+        <v>316863179.60005128</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="14"/>
+        <v>298211836.43494576</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="15"/>
+        <v>282225872.40291345</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>265868277.99818486</v>
+      </c>
+      <c r="Y32">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
-        <v>620331008179.55762</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="7"/>
-        <v>560884369620.80591</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>501545432105.4278</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="9"/>
-        <v>442257991037.38239</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="10"/>
-        <v>388372382262.1347</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>336581153038.6933</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="12"/>
-        <v>316863179600.05127</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="13"/>
-        <v>298211836434.9458</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="14"/>
-        <v>282225872402.91345</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="15"/>
-        <v>265868277998.18484</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="16"/>
-        <v>249417846693.33209</v>
+        <v>249417846.69333208</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -2262,52 +2266,52 @@
         <v>2.015566945411122</v>
       </c>
       <c r="N33">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>614423686.76489747</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>555162981.08349252</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>495939297.63574558</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>436733316.09176761</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>383258330.40438491</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="12"/>
+        <v>331867604.05881107</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="13"/>
+        <v>312060485.66977984</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="14"/>
+        <v>293525572.62180066</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="15"/>
+        <v>277542970.81256801</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>261237838.91341794</v>
+      </c>
+      <c r="Y33">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
-        <v>614423686764.89746</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="7"/>
-        <v>555162981083.49255</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>495939297635.74561</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="9"/>
-        <v>436733316091.76758</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="10"/>
-        <v>383258330404.38495</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>331867604058.81104</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="12"/>
-        <v>312060485669.77985</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="13"/>
-        <v>293525572621.80066</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="14"/>
-        <v>277542970812.56799</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="15"/>
-        <v>261237838913.41794</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="16"/>
-        <v>244741713054.67242</v>
+        <v>244741713.05467242</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -2362,52 +2366,52 @@
         <v>2.0568683037742712</v>
       </c>
       <c r="N34">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>624283525.25851548</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>564191333.0566324</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>504105872.16995776</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>444023629.81123924</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>389668663.95510328</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="12"/>
+        <v>337866026.39192414</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="13"/>
+        <v>317977219.1203419</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="14"/>
+        <v>299151632.24344224</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="15"/>
+        <v>282928279.51403046</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>266450171.67858696</v>
+      </c>
+      <c r="Y34">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
-        <v>624283525258.5155</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="7"/>
-        <v>564191333056.63245</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>504105872169.95776</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="9"/>
-        <v>444023629811.23926</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="10"/>
-        <v>389668663955.10327</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="11"/>
-        <v>337866026391.92413</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>317977219120.34192</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="13"/>
-        <v>299151632243.44226</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="14"/>
-        <v>282928279514.03046</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="15"/>
-        <v>266450171678.58694</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="16"/>
-        <v>249756761163.24332</v>
+        <v>249756761.16324329</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -2462,52 +2466,52 @@
         <v>2.1313557566288259</v>
       </c>
       <c r="N35">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>641909519.64277434</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>580715641.54632831</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>519541957.39551252</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="10"/>
+        <v>458377928.82856989</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="11"/>
+        <v>402649283.15175855</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="12"/>
+        <v>349499222.36785281</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="13"/>
+        <v>328860877.22782385</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="14"/>
+        <v>309513482.16973287</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="15"/>
+        <v>292851077.55666727</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>275933917.83757007</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
-        <v>641909519642.77441</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="7"/>
-        <v>580715641546.32825</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>519541957395.51257</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="9"/>
-        <v>458377928828.56989</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="10"/>
-        <v>402649283151.75861</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="11"/>
-        <v>349499222367.85284</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="12"/>
-        <v>328860877227.82385</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="13"/>
-        <v>309513482169.73285</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="14"/>
-        <v>292851077556.6673</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="15"/>
-        <v>275933917837.57007</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="16"/>
-        <v>258801455438.57257</v>
+        <v>258801455.43857259</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -2562,52 +2566,52 @@
         <v>2.161260439241433</v>
       </c>
       <c r="N36">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>691275824.26473951</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>623487776.64477372</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>555715564.87747169</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>487688790.38680142</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="11"/>
+        <v>425483717.85376579</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="12"/>
+        <v>364920210.25721419</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="13"/>
+        <v>342074544.77132934</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="14"/>
+        <v>320504001.37132555</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="15"/>
+        <v>301397213.12034732</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>282022584.76575154</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
-        <v>691275824264.7395</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="7"/>
-        <v>623487776644.77368</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>555715564877.47168</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
-        <v>487688790386.80139</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
-        <v>425483717853.76581</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="11"/>
-        <v>364920210257.21417</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="12"/>
-        <v>342074544771.32935</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="13"/>
-        <v>320504001371.32556</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="14"/>
-        <v>301397213120.34735</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="15"/>
-        <v>282022584765.75153</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="16"/>
-        <v>262432653731.25586</v>
+        <v>262432653.73125586</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -2662,52 +2666,52 @@
         <v>2.2173825594312282</v>
       </c>
       <c r="N37">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>750503886.66867995</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>674166720.80072057</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>599937353.23859155</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>524248826.75175953</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>453719090.91642565</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="12"/>
+        <v>384817605.60337299</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="13"/>
+        <v>359300199.7169382</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>335178509.29020429</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="15"/>
+        <v>313709600.6475094</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="16"/>
+        <v>291791955.10610861</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
-        <v>750503886668.67993</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="7"/>
-        <v>674166720800.72058</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>599937353238.59155</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
-        <v>524248826751.75952</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
-        <v>453719090916.42566</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="11"/>
-        <v>384817605603.37299</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="12"/>
-        <v>359300199716.93817</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="13"/>
-        <v>335178509290.20428</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="14"/>
-        <v>313709600647.5094</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="15"/>
-        <v>291791955106.10864</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="16"/>
-        <v>269247323850.14343</v>
+        <v>269247323.85014343</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -2762,52 +2766,52 @@
         <v>2.5855077194303129</v>
       </c>
       <c r="N38">
+        <f t="shared" si="18"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>873471568.18553472</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>783115132.40872383</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>700237715.28652322</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>618885272.32163906</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="11"/>
+        <v>539407356.09133852</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="12"/>
+        <v>454333536.45819658</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="13"/>
+        <v>423823635.33712274</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="14"/>
+        <v>394611448.79517454</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="15"/>
+        <v>368409055.38793439</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="16"/>
+        <v>341518675.49541354</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="17"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
-        <v>873471568185.53479</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="7"/>
-        <v>783115132408.72388</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>700237715286.52319</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
-        <v>618885272321.63904</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
-        <v>539407356091.33856</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="11"/>
-        <v>454333536458.19653</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="12"/>
-        <v>423823635337.12274</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="13"/>
-        <v>394611448795.17456</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="14"/>
-        <v>368409055387.93439</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="15"/>
-        <v>341518675495.41351</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="16"/>
-        <v>313947194763.2995</v>
+        <v>313947194.76329947</v>
       </c>
     </row>
   </sheetData>

--- a/csv_files/Try 3/Output_j3.xlsx
+++ b/csv_files/Try 3/Output_j3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\csv_files\Try 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5D440-4F3F-4CE2-8129-3825C34921DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401844E3-8481-4887-AB56-EBBBFC501F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCOH" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="29">
   <si>
     <t>longitude</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Total yearly cost</t>
+  </si>
+  <si>
+    <t>NPV Costs</t>
+  </si>
+  <si>
+    <t>Present Value Costs</t>
   </si>
 </sst>
 </file>
@@ -488,14 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E05C3D-ACE7-4668-B5E2-72320FC610A5}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -528,6 +535,9 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -551,8 +561,12 @@
         <v>4771518285.0467176</v>
       </c>
       <c r="F3">
-        <f>E3/D3</f>
-        <v>8.7953793008068875</v>
+        <f>AK23</f>
+        <v>2309373781.5004187</v>
+      </c>
+      <c r="G3">
+        <f>F3/D3</f>
+        <v>4.2568878797529406</v>
       </c>
       <c r="Q3">
         <v>2020</v>
@@ -608,8 +622,12 @@
         <v>4667465820.2056599</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="3">E4/D4</f>
-        <v>8.6035785278057588</v>
+        <f t="shared" ref="F4:F18" si="3">AK24</f>
+        <v>2260101755.5010371</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="4">F4/D4</f>
+        <v>4.1660643448328525</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -669,7 +687,11 @@
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>8.5430120801869549</v>
+        <v>2246057090.3840685</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4.1401756969272849</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -679,43 +701,43 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:AA5" si="4">1/(1+$R$1)^R4</f>
+        <f t="shared" ref="R5:AA5" si="5">1/(1+$R$1)^R4</f>
         <v>0.79383224102016958</v>
       </c>
       <c r="S5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63016962688310452</v>
       </c>
       <c r="T5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50024896713145905</v>
       </c>
       <c r="U5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39711375864599124</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31524170496588994</v>
       </c>
       <c r="W5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25024902911609154</v>
       </c>
       <c r="X5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19865574759634863</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1576993373059466</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12518681834097523</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9377332549801231E-2</v>
       </c>
     </row>
@@ -740,7 +762,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>8.6029312975352479</v>
+        <v>2259804798.4144492</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>4.1655169613677634</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -750,43 +776,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:AA6" si="5">1000*121425.742574257</f>
+        <f t="shared" ref="R6:AA6" si="6">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="W6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="X6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
     </row>
@@ -811,7 +837,11 @@
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>8.392798941055414</v>
+        <v>2221060779.7652378</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>4.0940997898722102</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -821,43 +851,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:AA7" si="6">R6*R5</f>
+        <f t="shared" ref="R7:AA7" si="7">R6*R5</f>
         <v>96391669.34526065</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76518814.892023429</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60743102.305942498</v>
       </c>
       <c r="U7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48219833.030043758</v>
       </c>
       <c r="V7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38278458.115858026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30386674.188908275</v>
       </c>
       <c r="X7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24121921.668530803</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19148759.135842796</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15200902.377561532</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12066966.399908496</v>
       </c>
     </row>
@@ -882,7 +912,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>8.2562518219379903</v>
+        <v>2190573378.3599949</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>4.037902109545719</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
@@ -913,7 +947,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>8.2131385061228563</v>
+        <v>2181204101.5132523</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>4.0206316436859062</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -937,7 +975,11 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>8.2708453193172851</v>
+        <v>2193831353.4027834</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>4.0439075620122198</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -961,7 +1003,11 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>8.0855506611324977</v>
+        <v>2156628883.7244272</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>3.9753319405431915</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -985,7 +1031,11 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>7.8572110658008008</v>
+        <v>2104322053.8536634</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>3.8789143264311585</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1009,7 +1059,11 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>7.7538649674740556</v>
+        <v>2080143928.7442913</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>3.8343465875238754</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1033,7 +1087,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>7.8901026260678382</v>
+        <v>2114999110.7404835</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.8985954341050353</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1057,7 +1115,11 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>8.1449423016943978</v>
+        <v>2179905722.4934249</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>4.0182383308505809</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1081,10 +1143,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>8.5842921069584879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2322574207.46771</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>4.2812203346192241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.78</v>
       </c>
@@ -1105,10 +1171,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>9.1365808070833943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2496742096.1916528</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>4.6022654510444267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.78</v>
       </c>
@@ -1129,18 +1199,28 @@
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>10.712866585755988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2919933848.709311</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>5.3823383247103731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1293,41 @@
       <c r="Y22">
         <v>2050</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>2020</v>
+      </c>
+      <c r="AA22">
+        <v>2023</v>
+      </c>
+      <c r="AB22">
+        <v>2026</v>
+      </c>
+      <c r="AC22">
+        <v>2029</v>
+      </c>
+      <c r="AD22">
+        <v>2032</v>
+      </c>
+      <c r="AE22">
+        <v>2035</v>
+      </c>
+      <c r="AF22">
+        <v>2038</v>
+      </c>
+      <c r="AG22">
+        <v>2041</v>
+      </c>
+      <c r="AH22">
+        <v>2044</v>
+      </c>
+      <c r="AI22">
+        <v>2047</v>
+      </c>
+      <c r="AJ22">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.78</v>
       </c>
@@ -1270,51 +1383,99 @@
         <v>121425742.574257</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O38" si="7">C23*$N$23</f>
+        <f t="shared" ref="O23:O38" si="8">C23*$N$23</f>
         <v>665662523.95123541</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P38" si="8">D23*$N$23</f>
+        <f t="shared" ref="P23:P38" si="9">D23*$N$23</f>
         <v>606499211.6817739</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q38" si="9">E23*$N$23</f>
+        <f t="shared" ref="Q23:Q38" si="10">E23*$N$23</f>
         <v>547335899.41230977</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R38" si="10">F23*$N$23</f>
+        <f t="shared" ref="R23:R38" si="11">F23*$N$23</f>
         <v>488172587.14284343</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S38" si="11">G23*$N$23</f>
+        <f t="shared" ref="S23:S38" si="12">G23*$N$23</f>
         <v>434334379.84447426</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T38" si="12">H23*$N$23</f>
+        <f t="shared" ref="T23:T38" si="13">H23*$N$23</f>
         <v>382998736.64070338</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U38" si="13">I23*$N$23</f>
+        <f t="shared" ref="U23:U38" si="14">I23*$N$23</f>
         <v>363238495.26798195</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V38" si="14">J23*$N$23</f>
+        <f t="shared" ref="V23:V38" si="15">J23*$N$23</f>
         <v>344744342.95455921</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W38" si="15">K23*$N$23</f>
+        <f t="shared" ref="W23:W38" si="16">K23*$N$23</f>
         <v>328885459.04088384</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X38" si="16">L23*$N$23</f>
+        <f t="shared" ref="X23:X38" si="17">L23*$N$23</f>
         <v>312962517.10321027</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y38" si="17">M23*$N$23</f>
+        <f t="shared" ref="Y23:Y38" si="18">M23*$N$23</f>
         <v>296684132.00674242</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f>O23*Q$5</f>
+        <v>665662523.95123541</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AJ38" si="19">P23*R$5</f>
+        <v>481458628.38630879</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="19"/>
+        <v>344914459.5123837</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="19"/>
+        <v>244207832.5000996</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="19"/>
+        <v>172480158.08921483</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="19"/>
+        <v>120737174.7383972</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="19"/>
+        <v>90900080.778402492</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="19"/>
+        <v>68485445.179249957</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="19"/>
+        <v>51865018.940309428</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="19"/>
+        <v>39178781.77613394</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="19"/>
+        <v>29483677.648683168</v>
+      </c>
+      <c r="AK23">
+        <f>SUM(Z23:AJ23)</f>
+        <v>2309373781.5004187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.78</v>
       </c>
@@ -1366,55 +1527,103 @@
         <v>2.384055286857016</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N38" si="18">1000000*121425.742574257</f>
+        <f t="shared" ref="N24:N38" si="20">1000000*121425.742574257</f>
         <v>121425742574.257</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>651897477.65512395</v>
       </c>
       <c r="P24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>593711622.9127804</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>535616640.9257831</v>
       </c>
       <c r="R24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>477565109.06622219</v>
       </c>
       <c r="S24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>425147067.97581393</v>
       </c>
       <c r="T24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>374424021.24692518</v>
       </c>
       <c r="U24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>355093258.73183948</v>
       </c>
       <c r="V24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>337080774.23576105</v>
       </c>
       <c r="W24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>321704121.73432654</v>
       </c>
       <c r="X24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>305740042.17638636</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>289485683.54469645</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z38" si="21">O24*Q$5</f>
+        <v>651897477.65512395</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="19"/>
+        <v>471307428.13657433</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="19"/>
+        <v>337529338.76458251</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="19"/>
+        <v>238901452.54840025</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="19"/>
+        <v>168831750.14119822</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="19"/>
+        <v>118034066.8380653</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="19"/>
+        <v>88861743.243311927</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="19"/>
+        <v>66963033.206161126</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="19"/>
+        <v>50732526.80609487</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="19"/>
+        <v>38274623.119497381</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="19"/>
+        <v>28768315.04202782</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24:AK38" si="22">SUM(Z24:AJ24)</f>
+        <v>2260101755.5010371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.78</v>
       </c>
@@ -1466,55 +1675,103 @@
         <v>2.3650750320294001</v>
       </c>
       <c r="N25">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>648515447.45822942</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>590568649.27247453</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>532508827.14745694</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="11"/>
+        <v>474307051.31259102</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="12"/>
+        <v>421634648.9745242</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>371673937.38534558</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="14"/>
+        <v>352305841.35894996</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="15"/>
+        <v>334178973.36921382</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>318637651.73394662</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="17"/>
+        <v>303096330.09867871</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="7"/>
+        <v>287180992.00800455</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="21"/>
         <v>648515447.45822942</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="8"/>
-        <v>590568649.27247453</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="9"/>
-        <v>532508827.14745694</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="10"/>
-        <v>474307051.31259102</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="11"/>
-        <v>421634648.9745242</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="12"/>
-        <v>371673937.38534558</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="13"/>
-        <v>352305841.35894996</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="14"/>
-        <v>334178973.36921382</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="15"/>
-        <v>318637651.73394662</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="16"/>
-        <v>303096330.09867871</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="17"/>
-        <v>287180992.00800455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f t="shared" si="19"/>
+        <v>468812434.32822299</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="19"/>
+        <v>335570888.91547257</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="19"/>
+        <v>237271612.5222916</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="19"/>
+        <v>167436920.22965643</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="19"/>
+        <v>117167125.71274176</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="19"/>
+        <v>88164194.752004996</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="19"/>
+        <v>66386573.785641454</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="19"/>
+        <v>50248946.519166388</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="19"/>
+        <v>37943665.215879552</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="19"/>
+        <v>28539280.944761276</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="22"/>
+        <v>2246057090.3840685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.78</v>
       </c>
@@ -1566,55 +1823,103 @@
         <v>2.3841224790568298</v>
       </c>
       <c r="N26">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>651807069.69579804</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>593594653.11383367</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>535483206.26003182</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="11"/>
+        <v>477420037.32560408</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="12"/>
+        <v>424991598.94500005</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="13"/>
+        <v>374638175.30941385</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="14"/>
+        <v>355280273.46909606</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="15"/>
+        <v>337244190.65301132</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>321472974.80483896</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="17"/>
+        <v>305688673.95908016</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="7"/>
+        <v>289493842.40745407</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="21"/>
         <v>651807069.69579804</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="8"/>
-        <v>593594653.11383367</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="9"/>
-        <v>535483206.26003182</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="10"/>
-        <v>477420037.32560408</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="11"/>
-        <v>424991598.94500005</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="12"/>
-        <v>374638175.30941385</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="13"/>
-        <v>355280273.46909606</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="14"/>
-        <v>337244190.65301132</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="15"/>
-        <v>321472974.80483896</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="16"/>
-        <v>305688673.95908016</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="17"/>
-        <v>289493842.40745407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f t="shared" si="19"/>
+        <v>471214573.73894477</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="19"/>
+        <v>337445252.29105276</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="19"/>
+        <v>238828880.55999607</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="19"/>
+        <v>168770011.25001866</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="19"/>
+        <v>118101577.1298496</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="19"/>
+        <v>88908543.499740779</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="19"/>
+        <v>66995496.81669949</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="19"/>
+        <v>50696075.088494368</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="19"/>
+        <v>38268192.495808974</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="19"/>
+        <v>28769125.848045312</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="22"/>
+        <v>2259804798.4144492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.78</v>
       </c>
@@ -1666,55 +1971,103 @@
         <v>2.2752202820779148</v>
       </c>
       <c r="N27">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>646032991.81615341</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>586728016.4020468</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>527476891.50962573</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>468251514.84086984</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="12"/>
+        <v>414759200.33649391</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="13"/>
+        <v>363433618.61668259</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="14"/>
+        <v>343551887.63871574</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="15"/>
+        <v>324936245.72004753</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>308955872.20112658</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="17"/>
+        <v>292720743.5761742</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="7"/>
+        <v>276270312.2713213</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="21"/>
         <v>646032991.81615341</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="8"/>
-        <v>586728016.4020468</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="9"/>
-        <v>527476891.50962573</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="10"/>
-        <v>468251514.84086984</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="11"/>
-        <v>414759200.33649391</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="12"/>
-        <v>363433618.61668259</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="13"/>
-        <v>343551887.63871574</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="14"/>
-        <v>324936245.72004753</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="15"/>
-        <v>308955872.20112658</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="16"/>
-        <v>292720743.5761742</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="17"/>
-        <v>276270312.2713213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f t="shared" si="19"/>
+        <v>465763616.12975562</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="19"/>
+        <v>332399915.91208065</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="19"/>
+        <v>234242336.65688622</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="19"/>
+        <v>164706584.97863078</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="19"/>
+        <v>114569433.57464601</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="19"/>
+        <v>85973526.332589179</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="19"/>
+        <v>64550452.814666882</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="19"/>
+        <v>48722136.302898392</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="19"/>
+        <v>36644778.550705709</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="19"/>
+        <v>27455006.696224529</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="22"/>
+        <v>2221060779.7652378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.78</v>
       </c>
@@ -1766,55 +2119,103 @@
         <v>2.22299036836736</v>
       </c>
       <c r="N28">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>639094350.66544282</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="9"/>
+        <v>579970488.92825675</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>520767987.63522089</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="11"/>
+        <v>461349697.71664852</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="12"/>
+        <v>407564898.56722891</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>356543848.80287451</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="14"/>
+        <v>336783607.43015319</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="15"/>
+        <v>318289455.11673045</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="16"/>
+        <v>302430571.20305496</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="17"/>
+        <v>286316932.18334794</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="7"/>
+        <v>269928256.21442777</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="21"/>
         <v>639094350.66544282</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="8"/>
-        <v>579970488.92825675</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="9"/>
-        <v>520767987.63522089</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="10"/>
-        <v>461349697.71664852</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="11"/>
-        <v>407564898.56722891</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="12"/>
-        <v>356543848.80287451</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="13"/>
-        <v>336783607.43015319</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="14"/>
-        <v>318289455.11673045</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="15"/>
-        <v>302430571.20305496</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="16"/>
-        <v>286316932.18334794</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="17"/>
-        <v>269928256.21442777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f t="shared" si="19"/>
+        <v>460399272.95148152</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="19"/>
+        <v>328172168.46075231</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="19"/>
+        <v>230789709.76916426</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="19"/>
+        <v>161849628.76220444</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="19"/>
+        <v>112397490.79171863</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="19"/>
+        <v>84279770.781610742</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="19"/>
+        <v>63230029.658248544</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="19"/>
+        <v>47693100.659780666</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="19"/>
+        <v>35843105.777182102</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="19"/>
+        <v>26824750.08240914</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="22"/>
+        <v>2190573378.3599949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.78</v>
       </c>
@@ -1866,55 +2267,103 @@
         <v>2.2052351773398309</v>
       </c>
       <c r="N29">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>636991964.58902836</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="9"/>
+        <v>577828652.31956685</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>518665340.05010271</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="11"/>
+        <v>459456129.35770839</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="12"/>
+        <v>405650535.62789696</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="13"/>
+        <v>354328177.27849621</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="14"/>
+        <v>334567935.90577489</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="15"/>
+        <v>316073783.59235215</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>300214899.67867684</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="17"/>
+        <v>284101260.65896976</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
+        <v>267772318.9593623</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="21"/>
         <v>636991964.58902836</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="8"/>
-        <v>577828652.31956685</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="9"/>
-        <v>518665340.05010271</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="10"/>
-        <v>459456129.35770839</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="11"/>
-        <v>405650535.62789696</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="12"/>
-        <v>354328177.27849621</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="13"/>
-        <v>334567935.90577489</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="14"/>
-        <v>316073783.59235215</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="15"/>
-        <v>300214899.67867684</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="16"/>
-        <v>284101260.65896976</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="17"/>
-        <v>267772318.9593623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <f t="shared" si="19"/>
+        <v>458699013.99650615</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="19"/>
+        <v>326847143.81657177</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="19"/>
+        <v>229842454.15341166</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="19"/>
+        <v>161089408.89995375</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="19"/>
+        <v>111699018.72272925</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="19"/>
+        <v>83725301.133794904</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="19"/>
+        <v>62789873.775145225</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="19"/>
+        <v>47343690.728698581</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="19"/>
+        <v>35565732.908556499</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="19"/>
+        <v>26610498.788855992</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="22"/>
+        <v>2181204101.5132523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.78</v>
       </c>
@@ -1966,55 +2415,103 @@
         <v>2.228139786312719</v>
       </c>
       <c r="N30">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>639892382.71962249</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>580587407.30551577</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>521336282.4130947</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="11"/>
+        <v>462110905.74433893</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="12"/>
+        <v>408618591.239963</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="13"/>
+        <v>357293009.52015156</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="14"/>
+        <v>337575036.08150965</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="15"/>
+        <v>319009063.77832901</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="16"/>
+        <v>303019372.73755586</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="17"/>
+        <v>286961528.64371008</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
+        <v>270553528.11226821</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="21"/>
         <v>639892382.71962249</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>580587407.30551577</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="9"/>
-        <v>521336282.4130947</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="10"/>
-        <v>462110905.74433893</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="11"/>
-        <v>408618591.239963</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="12"/>
-        <v>357293009.52015156</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="13"/>
-        <v>337575036.08150965</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="14"/>
-        <v>319009063.77832901</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="15"/>
-        <v>303019372.73755586</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="16"/>
-        <v>286961528.64371008</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="17"/>
-        <v>270553528.11226821</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f t="shared" si="19"/>
+        <v>460889002.64942753</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="19"/>
+        <v>328530290.56888467</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="19"/>
+        <v>231170503.29878858</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="19"/>
+        <v>162268064.61993161</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="19"/>
+        <v>112633657.49352652</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="19"/>
+        <v>84477825.033227354</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="19"/>
+        <v>63372984.054895215</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>47785954.271576181</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="19"/>
+        <v>35923800.757168695</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="19"/>
+        <v>26886887.935734876</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="22"/>
+        <v>2193831353.4027834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.78</v>
       </c>
@@ -2066,55 +2563,103 @@
         <v>2.1407856129822709</v>
       </c>
       <c r="N31">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>632882160.9034183</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>573086183.68348002</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>513357519.61564916</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>453661040.82740045</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="12"/>
+        <v>399699277.24975944</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>347717237.12024683</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>327714016.53703433</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>308976885.01312083</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>292875021.88895458</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="17"/>
+        <v>276518403.65875643</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
+        <v>259946482.74865821</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="21"/>
         <v>632882160.9034183</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="8"/>
-        <v>573086183.68348002</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>513357519.61564916</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="10"/>
-        <v>453661040.82740045</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="11"/>
-        <v>399699277.24975944</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="12"/>
-        <v>347717237.12024683</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="13"/>
-        <v>327714016.53703433</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="14"/>
-        <v>308976885.01312083</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="15"/>
-        <v>292875021.88895458</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="16"/>
-        <v>276518403.65875643</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="17"/>
-        <v>259946482.74865821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f t="shared" si="19"/>
+        <v>454934289.49115348</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="19"/>
+        <v>323502316.59382963</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="19"/>
+        <v>226943467.10168976</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="19"/>
+        <v>158726082.3167381</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="19"/>
+        <v>109614974.67581524</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="19"/>
+        <v>82010114.466127604</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="19"/>
+        <v>61380034.082272567</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>46186196.865352742</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="19"/>
+        <v>34616459.166765198</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="19"/>
+        <v>25832788.061264575</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="22"/>
+        <v>2156628883.7244272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.78</v>
       </c>
@@ -2166,55 +2711,103 @@
         <v>2.054077178410521</v>
       </c>
       <c r="N32">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>620331008.17955756</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>560884369.62080586</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>501545432.1054278</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>442257991.03738236</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="12"/>
+        <v>388372382.26213467</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>336581153.03869331</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>316863179.60005128</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="15"/>
+        <v>298211836.43494576</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>282225872.40291345</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="17"/>
+        <v>265868277.99818486</v>
+      </c>
+      <c r="Y32">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
+        <v>249417846.69333208</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="21"/>
         <v>620331008.17955756</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="8"/>
-        <v>560884369.62080586</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="9"/>
-        <v>501545432.1054278</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="10"/>
-        <v>442257991.03738236</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="11"/>
-        <v>388372382.26213467</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="12"/>
-        <v>336581153.03869331</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="13"/>
-        <v>316863179.60005128</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="14"/>
-        <v>298211836.43494576</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="15"/>
-        <v>282225872.40291345</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="16"/>
-        <v>265868277.99818486</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="17"/>
-        <v>249417846.69333208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f t="shared" si="19"/>
+        <v>445248096.08926946</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="19"/>
+        <v>316058697.81480289</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="19"/>
+        <v>221239103.22208461</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="19"/>
+        <v>154228016.47441399</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="19"/>
+        <v>106104416.5433028</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="19"/>
+        <v>79294703.057550579</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="19"/>
+        <v>59241495.309064187</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>44506833.048532091</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="19"/>
+        <v>33283203.820386667</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="19"/>
+        <v>24786480.294698603</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="22"/>
+        <v>2104322053.8536634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.78</v>
       </c>
@@ -2266,55 +2859,103 @@
         <v>2.015566945411122</v>
       </c>
       <c r="N33">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>614423686.76489747</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>555162981.08349252</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>495939297.63574558</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>436733316.09176761</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="12"/>
+        <v>383258330.40438491</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>331867604.05881107</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>312060485.66977984</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="15"/>
+        <v>293525572.62180066</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>277542970.81256801</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="17"/>
+        <v>261237838.91341794</v>
+      </c>
+      <c r="Y33">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
+        <v>244741713.05467242</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="21"/>
         <v>614423686.76489747</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="8"/>
-        <v>555162981.08349252</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="9"/>
-        <v>495939297.63574558</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="10"/>
-        <v>436733316.09176761</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="11"/>
-        <v>383258330.40438491</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="12"/>
-        <v>331867604.05881107</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="13"/>
-        <v>312060485.66977984</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="14"/>
-        <v>293525572.62180066</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="15"/>
-        <v>277542970.81256801</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="16"/>
-        <v>261237838.91341794</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="17"/>
-        <v>244741713.05467242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f t="shared" si="19"/>
+        <v>440706273.40494686</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="19"/>
+        <v>312525882.14778674</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="19"/>
+        <v>218475390.28680378</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="19"/>
+        <v>152197156.11927247</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="19"/>
+        <v>104618509.32644449</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="19"/>
+        <v>78092833.564358398</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="19"/>
+        <v>58310542.06783013</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>43768342.571065657</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="19"/>
+        <v>32703533.883843001</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="19"/>
+        <v>24321778.607042212</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="22"/>
+        <v>2080143928.7442913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.78</v>
       </c>
@@ -2366,55 +3007,103 @@
         <v>2.0568683037742712</v>
       </c>
       <c r="N34">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>624283525.25851548</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>564191333.0566324</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>504105872.16995776</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>444023629.81123924</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="12"/>
+        <v>389668663.95510328</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>337866026.39192414</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>317977219.1203419</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>299151632.24344224</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>282928279.51403046</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="17"/>
+        <v>266450171.67858696</v>
+      </c>
+      <c r="Y34">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="7"/>
+        <v>249756761.16324329</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="21"/>
         <v>624283525.25851548</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="8"/>
-        <v>564191333.0566324</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="9"/>
-        <v>504105872.16995776</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="10"/>
-        <v>444023629.81123924</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="11"/>
-        <v>389668663.95510328</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="12"/>
-        <v>337866026.39192414</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="13"/>
-        <v>317977219.1203419</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="14"/>
-        <v>299151632.24344224</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="15"/>
-        <v>282928279.51403046</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="16"/>
-        <v>266450171.67858696</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="17"/>
-        <v>249756761.16324329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f t="shared" si="19"/>
+        <v>447873270.2845034</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="19"/>
+        <v>317672209.37492424</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="19"/>
+        <v>222122362.19503376</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="19"/>
+        <v>154742787.76977274</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="19"/>
+        <v>106509462.20984054</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="19"/>
+        <v>79573490.365900263</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="19"/>
+        <v>59428191.147988968</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>44617602.18447423</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="19"/>
+        <v>33356049.238848928</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="19"/>
+        <v>24820160.710680909</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="22"/>
+        <v>2114999110.7404835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.78</v>
       </c>
@@ -2466,55 +3155,103 @@
         <v>2.1313557566288259</v>
       </c>
       <c r="N35">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>641909519.64277434</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>580715641.54632831</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>519541957.39551252</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="11"/>
+        <v>458377928.82856989</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="12"/>
+        <v>402649283.15175855</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>349499222.36785281</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>328860877.22782385</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>309513482.16973287</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>292851077.55666727</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="17"/>
+        <v>275933917.83757007</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
+        <v>258801455.43857259</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="21"/>
         <v>641909519.64277434</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="8"/>
-        <v>580715641.54632831</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="9"/>
-        <v>519541957.39551252</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="10"/>
-        <v>458377928.82856989</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="11"/>
-        <v>402649283.15175855</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="12"/>
-        <v>349499222.36785281</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="13"/>
-        <v>328860877.22782385</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="14"/>
-        <v>309513482.16973287</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="15"/>
-        <v>292851077.55666727</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="16"/>
-        <v>275933917.83757007</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="17"/>
-        <v>258801455.43857259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <f t="shared" si="19"/>
+        <v>460990799.12418729</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="19"/>
+        <v>327399561.44204789</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="19"/>
+        <v>229303085.45234954</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="19"/>
+        <v>159897570.24850884</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="19"/>
+        <v>110176730.74349461</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="19"/>
+        <v>82297115.24052909</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="19"/>
+        <v>61486632.191577405</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="19"/>
+        <v>46182420.860018797</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="19"/>
+        <v>34543289.24644547</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="19"/>
+        <v>25718998.301491592</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="22"/>
+        <v>2179905722.4934249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.78</v>
       </c>
@@ -2566,55 +3303,103 @@
         <v>2.161260439241433</v>
       </c>
       <c r="N36">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>691275824.26473951</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>623487776.64477372</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>555715564.87747169</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="11"/>
+        <v>487688790.38680142</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="12"/>
+        <v>425483717.85376579</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>364920210.25721419</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="14"/>
+        <v>342074544.77132934</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>320504001.37132555</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>301397213.12034732</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="17"/>
+        <v>282022584.76575154</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
+        <v>262432653.73125586</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="21"/>
         <v>691275824.26473951</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="8"/>
-        <v>623487776.64477372</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="9"/>
-        <v>555715564.87747169</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="10"/>
-        <v>487688790.38680142</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="11"/>
-        <v>425483717.85376579</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="12"/>
-        <v>364920210.25721419</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="13"/>
-        <v>342074544.77132934</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="14"/>
-        <v>320504001.37132555</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="15"/>
-        <v>301397213.12034732</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="16"/>
-        <v>282022584.76575154</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="17"/>
-        <v>262432653.73125586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <f t="shared" si="19"/>
+        <v>494944698.98260367</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="19"/>
+        <v>350195070.17197001</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="19"/>
+        <v>243965813.67258805</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="19"/>
+        <v>168965438.43957937</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="19"/>
+        <v>115038069.25799523</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="19"/>
+        <v>85603822.714354157</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="19"/>
+        <v>63669962.000041828</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>47530140.774937928</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="19"/>
+        <v>35305510.087122425</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="19"/>
+        <v>26079857.101777848</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="22"/>
+        <v>2322574207.46771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.78</v>
       </c>
@@ -2666,55 +3451,103 @@
         <v>2.2173825594312282</v>
       </c>
       <c r="N37">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>750503886.66867995</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>674166720.80072057</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>599937353.23859155</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>524248826.75175953</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="12"/>
+        <v>453719090.91642565</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="13"/>
+        <v>384817605.60337299</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="14"/>
+        <v>359300199.7169382</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="15"/>
+        <v>335178509.29020429</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="16"/>
+        <v>313709600.6475094</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="17"/>
+        <v>291791955.10610861</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
+        <v>269247323.85014343</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="21"/>
         <v>750503886.66867995</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="8"/>
-        <v>674166720.80072057</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="9"/>
-        <v>599937353.23859155</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="10"/>
-        <v>524248826.75175953</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="11"/>
-        <v>453719090.91642565</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="12"/>
-        <v>384817605.60337299</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="13"/>
-        <v>359300199.7169382</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="14"/>
-        <v>335178509.29020429</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="15"/>
-        <v>313709600.6475094</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="16"/>
-        <v>291791955.10610861</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="17"/>
-        <v>269247323.85014343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f t="shared" si="19"/>
+        <v>535175278.79445499</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="19"/>
+        <v>378062298.0436005</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="19"/>
+        <v>262254934.10244691</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="19"/>
+        <v>180178093.56326401</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="19"/>
+        <v>121310558.0912987</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="19"/>
+        <v>89914526.140381575</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="19"/>
+        <v>66585137.341275215</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="19"/>
+        <v>49471796.128625385</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="19"/>
+        <v>36528506.477226414</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="19"/>
+        <v>26757080.840399731</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="22"/>
+        <v>2496742096.1916528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.78</v>
       </c>
@@ -2766,52 +3599,100 @@
         <v>2.5855077194303129</v>
       </c>
       <c r="N38">
+        <f t="shared" si="20"/>
+        <v>121425742574.257</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>873471568.18553472</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>783115132.40872383</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>700237715.28652322</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>618885272.32163906</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="12"/>
+        <v>539407356.09133852</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="13"/>
+        <v>454333536.45819658</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="14"/>
+        <v>423823635.33712274</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>394611448.79517454</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="16"/>
+        <v>368409055.38793439</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="17"/>
+        <v>341518675.49541354</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="18"/>
-        <v>121425742574.257</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
+        <v>313947194.76329947</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="21"/>
         <v>873471568.18553472</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="8"/>
-        <v>783115132.40872383</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="9"/>
-        <v>700237715.28652322</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="10"/>
-        <v>618885272.32163906</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="11"/>
-        <v>539407356.09133852</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="12"/>
-        <v>454333536.45819658</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="13"/>
-        <v>423823635.33712274</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="14"/>
-        <v>394611448.79517454</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="15"/>
-        <v>368409055.38793439</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="16"/>
-        <v>341518675.49541354</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="17"/>
-        <v>313947194.76329947</v>
+      <c r="AA38">
+        <f t="shared" si="19"/>
+        <v>621662040.53682411</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="19"/>
+        <v>441268539.77158588</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="19"/>
+        <v>309596718.25177169</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="19"/>
+        <v>214206082.61872807</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="19"/>
+        <v>143224878.65626422</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="19"/>
+        <v>106061453.25956739</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="19"/>
+        <v>78391832.370483652</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="19"/>
+        <v>58097863.892187029</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="19"/>
+        <v>42753636.389294803</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="19"/>
+        <v>31199234.777069628</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="22"/>
+        <v>2919933848.709311</v>
       </c>
     </row>
   </sheetData>
